--- a/Week 5/ProductBacklog (Version 0.5).xlsx
+++ b/Week 5/ProductBacklog (Version 0.5).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\swp391-onlineshop-gr1\Week 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\SWP\swp391-onlineshop-gr1\Week 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F1E9F6-7F31-40A5-8A19-7A1181FA08D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -59,9 +60,6 @@
     <t>Simple</t>
   </si>
   <si>
-    <t>It allow everyone can view and search product in website</t>
-  </si>
-  <si>
     <t>Iteration 1</t>
   </si>
   <si>
@@ -171,12 +169,6 @@
   </si>
   <si>
     <t>Show news about your order, replies,...</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Placeholder when error occur</t>
   </si>
   <si>
     <t>ASSIGNMENT FUNCTION DETAILS - ONLINE SHOPPING SYSTEM</t>
@@ -270,17 +262,48 @@
   <si>
     <t>02/010/2021</t>
   </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Showcase product and shop introduction</t>
+  </si>
+  <si>
+    <t>Header + Footer + Error</t>
+  </si>
+  <si>
+    <t>Navbar , footer, Placeholder when error occur</t>
+  </si>
+  <si>
+    <t>Product List</t>
+  </si>
+  <si>
+    <t>Product list with filter,search, function</t>
+  </si>
+  <si>
+    <t>19/10/2021</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -447,6 +470,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
+      <name val="Sitka Display"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Sitka Display"/>
     </font>
   </fonts>
@@ -640,248 +668,254 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="28" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="28" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="28" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="29" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="29" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="29" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,11 +1271,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1354,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="19"/>
@@ -1340,7 +1374,7 @@
     </row>
     <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="11"/>
@@ -1377,10 +1411,10 @@
         <v>8</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -1391,214 +1425,211 @@
         <v>10</v>
       </c>
       <c r="D10" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" s="75" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>2</v>
       </c>
       <c r="B11" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>3</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="D12" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="E12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55">
+        <v>4</v>
+      </c>
+      <c r="B13" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55">
-        <v>3</v>
-      </c>
-      <c r="B12" s="56" t="s">
+      <c r="C13" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
-        <v>4</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
         <v>5</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>63</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="42">
         <v>6</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="B15" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>63</v>
+      </c>
       <c r="H15" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>7</v>
       </c>
-      <c r="B16" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>37</v>
+      <c r="B16" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="7" t="s">
-        <v>13</v>
+      <c r="H16" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>8</v>
       </c>
-      <c r="B17" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>15</v>
+      <c r="B17" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>14</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>9</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>70</v>
+      <c r="B18" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1606,161 +1637,168 @@
         <v>10</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>71</v>
       </c>
       <c r="G19" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
         <v>67</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>11</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>12</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
-        <v>12</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>64</v>
+      </c>
       <c r="H21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>13</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="B22" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>14</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="24"/>
+      <c r="B23" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>15</v>
       </c>
-      <c r="B24" s="68" t="s">
-        <v>63</v>
+      <c r="B24" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="24"/>
       <c r="H24" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>16</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>58</v>
+      <c r="B25" s="68" t="s">
+        <v>60</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>54</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1768,158 +1806,169 @@
         <v>17</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="63">
+      <c r="A27" s="22">
         <v>18</v>
       </c>
-      <c r="B27" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="66" t="s">
-        <v>73</v>
-      </c>
+      <c r="B27" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="63">
         <v>19</v>
       </c>
       <c r="B28" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="63">
+        <v>20</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="64" t="s">
+      <c r="E29" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <v>21</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
-        <v>20</v>
-      </c>
-      <c r="B29" s="32" t="s">
+      <c r="C30" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
-        <v>21</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E30" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
         <v>22</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="37" t="s">
+      <c r="B31" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="48">
+        <v>23</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="70" t="s">
+      <c r="D32" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="74" t="s">
+      <c r="G32" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="49" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="74" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -1954,7 +2003,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1962,7 +2011,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1976,6 +2025,17 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Week 5/ProductBacklog (Version 0.5).xlsx
+++ b/Week 5/ProductBacklog (Version 0.5).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\swp391-onlineshop-gr1\Week 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\swp391-onlineshop-gr1\Week 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -250,15 +250,9 @@
     <t>Đinh Tiến Lâm</t>
   </si>
   <si>
-    <t xml:space="preserve">Đinh Tiến Lâm </t>
-  </si>
-  <si>
     <t>NOTE</t>
   </si>
   <si>
-    <t>Tìm hiểu thêm về GMAIL API</t>
-  </si>
-  <si>
     <t>Bạch Ngọc Minh Châu</t>
   </si>
   <si>
@@ -268,14 +262,20 @@
     <t>Ngô Thị Ngọc Mai</t>
   </si>
   <si>
-    <t>02/010/2021</t>
+    <t>Product List</t>
+  </si>
+  <si>
+    <t>Customer can see products that they have just searched</t>
+  </si>
+  <si>
+    <t>literation 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,6 +447,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
+      <name val="Sitka Display"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Sitka Display"/>
     </font>
   </fonts>
@@ -642,7 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -854,28 +859,25 @@
     <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="28" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="28" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="28" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="28" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1240,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1256,7 @@
     <col min="6" max="6" width="18.875" customWidth="1"/>
     <col min="7" max="7" width="22.25" customWidth="1"/>
     <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1376,8 +1378,8 @@
       <c r="H9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="73" t="s">
-        <v>69</v>
+      <c r="I9" s="77" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1396,8 +1398,8 @@
       <c r="E10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="75" t="s">
-        <v>74</v>
+      <c r="F10" s="73">
+        <v>44476</v>
       </c>
       <c r="G10" s="70" t="s">
         <v>64</v>
@@ -1405,163 +1407,174 @@
       <c r="H10" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="78"/>
+    </row>
+    <row r="11" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>2</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>15</v>
+        <v>72</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="75" t="s">
-        <v>74</v>
+      <c r="F11" s="73">
+        <v>44476</v>
       </c>
       <c r="G11" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="78"/>
+    </row>
+    <row r="12" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>2</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="73">
+        <v>44476</v>
+      </c>
+      <c r="G12" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55">
+      <c r="H12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="78"/>
+    </row>
+    <row r="13" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55">
         <v>3</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B13" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C13" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D13" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
+      <c r="F13" s="34"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="78"/>
+    </row>
+    <row r="14" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
         <v>4</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B14" s="43" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
-        <v>5</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>21</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="73">
+        <v>44476</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="78"/>
+    </row>
+    <row r="15" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42">
+        <v>5</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="47" t="s">
+      <c r="E15" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="73">
+        <v>44476</v>
+      </c>
+      <c r="G15" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
-        <v>6</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
       <c r="H15" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I15" s="78"/>
     </row>
     <row r="16" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
-        <v>7</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>37</v>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>62</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
-        <v>8</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="74" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>62</v>
@@ -1571,188 +1584,193 @@
       <c r="H17" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I17" s="78"/>
     </row>
     <row r="18" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
-        <v>9</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>70</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="78"/>
     </row>
     <row r="19" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>67</v>
+        <v>12</v>
+      </c>
+      <c r="F19" s="73">
+        <v>44476</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>64</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I19" s="78"/>
     </row>
     <row r="20" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
-        <v>11</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>26</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>74</v>
+        <v>12</v>
+      </c>
+      <c r="F20" s="73">
+        <v>44476</v>
       </c>
       <c r="G20" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="78"/>
+    </row>
+    <row r="21" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
+        <v>11</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="F21" s="73">
+        <v>44476</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>67</v>
+      </c>
       <c r="H21" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
-        <v>13</v>
-      </c>
-      <c r="B22" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="78"/>
+    </row>
+    <row r="23" spans="1:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>13</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C23" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D23" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
-        <v>14</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="24"/>
+      <c r="E23" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="73"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I23" s="78"/>
     </row>
     <row r="24" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
-        <v>15</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>63</v>
+        <v>14</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="24"/>
       <c r="H24" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
-        <v>16</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>40</v>
+      <c r="D25" s="67" t="s">
+        <v>57</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>60</v>
@@ -1762,19 +1780,20 @@
       <c r="H25" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I25" s="78"/>
     </row>
     <row r="26" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>60</v>
@@ -1784,93 +1803,97 @@
       <c r="H26" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I26" s="78"/>
     </row>
     <row r="27" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="63">
+      <c r="A27" s="22">
+        <v>17</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="78"/>
+    </row>
+    <row r="28" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="63">
         <v>18</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B28" s="64" t="s">
         <v>43</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63">
-        <v>19</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>45</v>
       </c>
       <c r="C28" s="65" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="73">
+        <v>44476</v>
+      </c>
+      <c r="G28" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="78"/>
+    </row>
+    <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="63">
+        <v>19</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="66" t="s">
+      <c r="E29" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="F29" s="73">
+        <v>44476</v>
+      </c>
+      <c r="G29" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="78"/>
+    </row>
+    <row r="30" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
         <v>20</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B30" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
-        <v>21</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="E30" s="27" t="s">
         <v>59</v>
@@ -1880,46 +1903,59 @@
       <c r="H30" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48">
+      <c r="I30" s="78"/>
+    </row>
+    <row r="31" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
+        <v>21</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="78"/>
+    </row>
+    <row r="32" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="48">
         <v>22</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B32" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C32" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D32" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E32" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="1"/>
+      <c r="F32" s="73">
+        <v>44476</v>
+      </c>
+      <c r="G32" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>

--- a/Week 5/ProductBacklog (Version 0.5).xlsx
+++ b/Week 5/ProductBacklog (Version 0.5).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -229,9 +229,6 @@
     <t>literation 4</t>
   </si>
   <si>
-    <t>Iteration 3</t>
-  </si>
-  <si>
     <t>Iteration 2</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>Bạch Ngọc Minh Châu</t>
   </si>
   <si>
-    <t xml:space="preserve">HEADER + FOOTER + ERROR </t>
-  </si>
-  <si>
     <t>Ngô Thị Ngọc Mai</t>
   </si>
   <si>
@@ -269,6 +263,12 @@
   </si>
   <si>
     <t>literation 1</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>literation 2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
       <name val="Sitka Display"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +531,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -787,9 +799,6 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -877,7 +886,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1242,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1378,8 +1393,8 @@
       <c r="H9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="77" t="s">
-        <v>68</v>
+      <c r="I9" s="76" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1398,43 +1413,43 @@
       <c r="E10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="72">
         <v>44476</v>
       </c>
-      <c r="G10" s="70" t="s">
-        <v>64</v>
+      <c r="G10" s="69" t="s">
+        <v>63</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="78"/>
+      <c r="I10" s="77"/>
     </row>
     <row r="11" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>2</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="72">
         <v>44476</v>
       </c>
-      <c r="G11" s="70" t="s">
-        <v>64</v>
+      <c r="G11" s="69" t="s">
+        <v>63</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="78"/>
+      <c r="I11" s="77"/>
     </row>
     <row r="12" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
@@ -1452,39 +1467,43 @@
       <c r="E12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="72">
         <v>44476</v>
       </c>
-      <c r="G12" s="70" t="s">
-        <v>65</v>
+      <c r="G12" s="69" t="s">
+        <v>64</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="78"/>
+      <c r="I12" s="77"/>
     </row>
     <row r="13" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55">
+      <c r="A13" s="54">
         <v>3</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="78"/>
+      <c r="E13" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="34">
+        <v>44486</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="77"/>
     </row>
     <row r="14" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
@@ -1502,16 +1521,16 @@
       <c r="E14" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="72">
         <v>44476</v>
       </c>
-      <c r="G14" s="71" t="s">
-        <v>66</v>
+      <c r="G14" s="70" t="s">
+        <v>65</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="78"/>
+      <c r="I14" s="77"/>
     </row>
     <row r="15" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
@@ -1529,16 +1548,16 @@
       <c r="E15" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="72">
         <v>44476</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="78"/>
+      <c r="I15" s="77"/>
     </row>
     <row r="16" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
@@ -1554,43 +1573,47 @@
         <v>28</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="F16" s="78">
+        <v>44486</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="H16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="78"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="17" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>7</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="73" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="78"/>
+      <c r="I17" s="77"/>
     </row>
     <row r="18" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>8</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="74" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -1600,95 +1623,99 @@
         <v>30</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="F18" s="78">
+        <v>44486</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="H18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="77"/>
     </row>
     <row r="19" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>9</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="72">
         <v>44476</v>
       </c>
-      <c r="G19" s="54" t="s">
-        <v>64</v>
+      <c r="G19" s="53" t="s">
+        <v>63</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="78"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>10</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="72">
         <v>44476</v>
       </c>
-      <c r="G20" s="72" t="s">
-        <v>67</v>
+      <c r="G20" s="71" t="s">
+        <v>66</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="78"/>
+      <c r="I20" s="77"/>
     </row>
     <row r="21" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>11</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="73">
+      <c r="F21" s="72">
         <v>44476</v>
       </c>
-      <c r="G21" s="72" t="s">
-        <v>67</v>
+      <c r="G21" s="71" t="s">
+        <v>66</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="78"/>
+      <c r="I21" s="77"/>
     </row>
     <row r="22" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
@@ -1706,12 +1733,16 @@
       <c r="E22" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="78">
+        <v>44486</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="H22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="78"/>
+      <c r="I22" s="77"/>
     </row>
     <row r="23" spans="1:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
@@ -1727,14 +1758,14 @@
         <v>35</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="73"/>
+        <v>72</v>
+      </c>
+      <c r="F23" s="72"/>
       <c r="G23" s="40"/>
       <c r="H23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="78"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="24" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
@@ -1746,7 +1777,7 @@
       <c r="C24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="66" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="25" t="s">
@@ -1757,19 +1788,19 @@
       <c r="H24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="78"/>
+      <c r="I24" s="77"/>
     </row>
     <row r="25" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>15</v>
       </c>
-      <c r="B25" s="68" t="s">
-        <v>63</v>
+      <c r="B25" s="67" t="s">
+        <v>62</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="66" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="25" t="s">
@@ -1780,7 +1811,7 @@
       <c r="H25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="78"/>
+      <c r="I25" s="77"/>
     </row>
     <row r="26" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
@@ -1803,7 +1834,7 @@
       <c r="H26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="78"/>
+      <c r="I26" s="77"/>
     </row>
     <row r="27" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
@@ -1826,61 +1857,61 @@
       <c r="H27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="78"/>
+      <c r="I27" s="77"/>
     </row>
     <row r="28" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63">
+      <c r="A28" s="62">
         <v>18</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="73">
+      <c r="E28" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="72">
         <v>44476</v>
       </c>
-      <c r="G28" s="66" t="s">
-        <v>71</v>
+      <c r="G28" s="65" t="s">
+        <v>69</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="78"/>
+      <c r="I28" s="77"/>
     </row>
     <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="63">
+      <c r="A29" s="62">
         <v>19</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="73">
+      <c r="E29" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="72">
         <v>44476</v>
       </c>
-      <c r="G29" s="66" t="s">
-        <v>71</v>
+      <c r="G29" s="65" t="s">
+        <v>69</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="78"/>
+      <c r="I29" s="77"/>
     </row>
     <row r="30" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
@@ -1903,7 +1934,7 @@
       <c r="H30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="78"/>
+      <c r="I30" s="77"/>
     </row>
     <row r="31" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
@@ -1919,14 +1950,18 @@
         <v>39</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+        <v>74</v>
+      </c>
+      <c r="F31" s="78">
+        <v>44486</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="78"/>
+      <c r="I31" s="77"/>
     </row>
     <row r="32" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="48">
@@ -1942,20 +1977,18 @@
         <v>50</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="73">
+        <v>72</v>
+      </c>
+      <c r="F32" s="72">
         <v>44476</v>
       </c>
-      <c r="G32" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="79" t="s">
-        <v>70</v>
-      </c>
+      <c r="G32" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="79"/>
     </row>
     <row r="33" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>

--- a/Week 5/ProductBacklog (Version 0.5).xlsx
+++ b/Week 5/ProductBacklog (Version 0.5).xlsx
@@ -131,9 +131,6 @@
     <t>Customers can view history of orders</t>
   </si>
   <si>
-    <t>Seller views the detail of 1 of his orders</t>
-  </si>
-  <si>
     <t>seller views and manages all products</t>
   </si>
   <si>
@@ -269,6 +266,9 @@
   </si>
   <si>
     <t>literation 2</t>
+  </si>
+  <si>
+    <t>Buyer views the detail of 1 of his orders</t>
   </si>
 </sst>
 </file>
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1337,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="19"/>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="11"/>
@@ -1394,7 +1394,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1417,7 +1417,7 @@
         <v>44476</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>13</v>
@@ -1429,13 +1429,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>12</v>
@@ -1444,7 +1444,7 @@
         <v>44476</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>13</v>
@@ -1471,7 +1471,7 @@
         <v>44476</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>13</v>
@@ -1489,16 +1489,16 @@
         <v>18</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="34">
         <v>44486</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="59" t="s">
         <v>13</v>
@@ -1525,7 +1525,7 @@
         <v>44476</v>
       </c>
       <c r="G14" s="70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>13</v>
@@ -1552,7 +1552,7 @@
         <v>44476</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>13</v>
@@ -1573,13 +1573,13 @@
         <v>28</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="78">
         <v>44486</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>13</v>
@@ -1591,16 +1591,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="73" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -1623,13 +1623,13 @@
         <v>30</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="78">
         <v>44486</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>13</v>
@@ -1656,7 +1656,7 @@
         <v>44476</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>13</v>
@@ -1683,7 +1683,7 @@
         <v>44476</v>
       </c>
       <c r="G20" s="71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>13</v>
@@ -1710,7 +1710,7 @@
         <v>44476</v>
       </c>
       <c r="G21" s="71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>13</v>
@@ -1731,13 +1731,13 @@
         <v>34</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="78">
         <v>44486</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>13</v>
@@ -1749,16 +1749,16 @@
         <v>13</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="72"/>
       <c r="G23" s="40"/>
@@ -1772,16 +1772,16 @@
         <v>14</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="24"/>
@@ -1795,16 +1795,16 @@
         <v>15</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -1818,16 +1818,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -1841,16 +1841,16 @@
         <v>17</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -1864,22 +1864,22 @@
         <v>18</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="72">
         <v>44476</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>13</v>
@@ -1891,22 +1891,22 @@
         <v>19</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="72">
         <v>44476</v>
       </c>
       <c r="G29" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>13</v>
@@ -1918,16 +1918,16 @@
         <v>20</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -1941,22 +1941,22 @@
         <v>21</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" s="78">
         <v>44486</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>13</v>
@@ -1968,25 +1968,25 @@
         <v>22</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="37" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="72">
         <v>44476</v>
       </c>
       <c r="G32" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I32" s="79"/>
     </row>

--- a/Week 5/ProductBacklog (Version 0.5).xlsx
+++ b/Week 5/ProductBacklog (Version 0.5).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>Buyer views the detail of 1 of his orders</t>
+  </si>
+  <si>
+    <t>Nguyễn Gia Phú + Trần Văn Đức</t>
+  </si>
+  <si>
+    <t>Blog Management</t>
   </si>
 </sst>
 </file>
@@ -659,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -851,9 +857,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -918,15 +921,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>611380</xdr:colOff>
+      <xdr:colOff>649480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>756039</xdr:colOff>
+      <xdr:colOff>794139</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -956,8 +959,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2030605" y="0"/>
-          <a:ext cx="2440184" cy="762000"/>
+          <a:off x="2373505" y="9525"/>
+          <a:ext cx="6469259" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1255,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1396,7 @@
       <c r="H9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="75" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1413,16 +1416,16 @@
       <c r="E10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="71">
         <v>44476</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="68" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="77"/>
+      <c r="I10" s="76"/>
     </row>
     <row r="11" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
@@ -1440,16 +1443,16 @@
       <c r="E11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="71">
         <v>44476</v>
       </c>
-      <c r="G11" s="69" t="s">
-        <v>62</v>
+      <c r="G11" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="77"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
@@ -1467,16 +1470,16 @@
       <c r="E12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="71">
         <v>44476</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="68" t="s">
         <v>63</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="77"/>
+      <c r="I12" s="76"/>
     </row>
     <row r="13" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54">
@@ -1503,7 +1506,7 @@
       <c r="H13" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="77"/>
+      <c r="I13" s="76"/>
     </row>
     <row r="14" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
@@ -1521,16 +1524,16 @@
       <c r="E14" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="71">
         <v>44476</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="69" t="s">
         <v>64</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="77"/>
+      <c r="I14" s="76"/>
     </row>
     <row r="15" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
@@ -1548,7 +1551,7 @@
       <c r="E15" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="71">
         <v>44476</v>
       </c>
       <c r="G15" s="47" t="s">
@@ -1557,7 +1560,7 @@
       <c r="H15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="77"/>
+      <c r="I15" s="76"/>
     </row>
     <row r="16" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
@@ -1575,7 +1578,7 @@
       <c r="E16" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="77">
         <v>44486</v>
       </c>
       <c r="G16" s="24" t="s">
@@ -1584,16 +1587,16 @@
       <c r="H16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="77"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>7</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="72" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1603,17 +1606,19 @@
         <v>60</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="H17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="77"/>
+      <c r="I17" s="76"/>
     </row>
     <row r="18" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>8</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -1625,7 +1630,7 @@
       <c r="E18" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="77">
         <v>44486</v>
       </c>
       <c r="G18" s="24" t="s">
@@ -1634,7 +1639,7 @@
       <c r="H18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="77"/>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
@@ -1652,7 +1657,7 @@
       <c r="E19" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="71">
         <v>44476</v>
       </c>
       <c r="G19" s="53" t="s">
@@ -1661,7 +1666,7 @@
       <c r="H19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="77"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
@@ -1679,16 +1684,16 @@
       <c r="E20" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="71">
         <v>44476</v>
       </c>
-      <c r="G20" s="71" t="s">
+      <c r="G20" s="70" t="s">
         <v>65</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="77"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
@@ -1700,22 +1705,22 @@
       <c r="C21" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="67" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="71">
         <v>44476</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="70" t="s">
         <v>65</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="77"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
@@ -1733,7 +1738,7 @@
       <c r="E22" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="77">
         <v>44486</v>
       </c>
       <c r="G22" s="24" t="s">
@@ -1742,7 +1747,7 @@
       <c r="H22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="77"/>
+      <c r="I22" s="76"/>
     </row>
     <row r="23" spans="1:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
@@ -1760,12 +1765,14 @@
       <c r="E23" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="40"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="H23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="77"/>
+      <c r="I23" s="76"/>
     </row>
     <row r="24" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
@@ -1784,17 +1791,19 @@
         <v>59</v>
       </c>
       <c r="F24" s="35"/>
-      <c r="G24" s="24"/>
+      <c r="G24" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="H24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="77"/>
+      <c r="I24" s="76"/>
     </row>
     <row r="25" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>15</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="29" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -1807,11 +1816,13 @@
         <v>59</v>
       </c>
       <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="G25" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="H25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="77"/>
+      <c r="I25" s="76"/>
     </row>
     <row r="26" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
@@ -1830,11 +1841,13 @@
         <v>59</v>
       </c>
       <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="H26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="77"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
@@ -1853,11 +1866,13 @@
         <v>59</v>
       </c>
       <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="G27" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="H27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="77"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="62">
@@ -1875,7 +1890,7 @@
       <c r="E28" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="72">
+      <c r="F28" s="71">
         <v>44476</v>
       </c>
       <c r="G28" s="65" t="s">
@@ -1884,7 +1899,7 @@
       <c r="H28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="77"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="62">
@@ -1902,7 +1917,7 @@
       <c r="E29" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="72">
+      <c r="F29" s="71">
         <v>44476</v>
       </c>
       <c r="G29" s="65" t="s">
@@ -1911,95 +1926,103 @@
       <c r="H29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="77"/>
-    </row>
-    <row r="30" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="62">
+        <v>21</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="64"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="76"/>
+    </row>
+    <row r="31" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
         <v>20</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B31" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E31" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="77"/>
-    </row>
-    <row r="31" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="F31" s="24"/>
+      <c r="G31" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="76"/>
+    </row>
+    <row r="32" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22">
         <v>21</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B32" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E32" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="78">
+      <c r="F32" s="77">
         <v>44486</v>
       </c>
-      <c r="G31" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="77"/>
-    </row>
-    <row r="32" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48">
+      <c r="G32" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="76"/>
+    </row>
+    <row r="33" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="48">
         <v>22</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B33" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C33" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D33" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E33" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="72">
+      <c r="F33" s="71">
         <v>44476</v>
       </c>
-      <c r="G32" s="69" t="s">
+      <c r="G33" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="80" t="s">
+      <c r="H33" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="79"/>
-    </row>
-    <row r="33" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="78"/>
     </row>
     <row r="34" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
@@ -2023,7 +2046,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2031,7 +2054,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2045,6 +2068,17 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
